--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACD48E-371B-44A2-9388-770C8D2CF17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B89646-9862-47C3-B158-A8E2CCC85812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>47-Java性能调优实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入理解Nginx模块开发与架构解析第2版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,10 +305,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,6 +319,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,244 +610,229 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
     </row>
   </sheetData>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\总结\1-学习内容\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B89646-9862-47C3-B158-A8E2CCC85812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29552796-A7C3-4DCC-9A87-42AB34D3B0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="已完成" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>苏承芳微积分基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性代数的几何意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java并发编程实战</t>
+  </si>
+  <si>
+    <t>准备看第5章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-深入拆解Java虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145-重学线性代数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47-Java性能调优实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入理解Nginx模块开发与架构解析第2版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,54 +139,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苏承芳微积分基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性代数的几何意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java并发编程实战</t>
-  </si>
-  <si>
-    <t>准备看第5章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-深入拆解Java虚拟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145-重学线性代数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47-Java性能调优实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第9章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第5章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深入理解Nginx模块开发与架构解析第2版</t>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总java常见工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看vue官方文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查找相关方面的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内部类需要总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +231,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,7 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,13 +387,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -607,240 +679,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.2109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{53D087BC-B672-49C9-91AB-6AE6CC4F59FA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{16AC199A-E1EA-434A-B3BC-06F840B86571}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{53D087BC-B672-49C9-91AB-6AE6CC4F59FA}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{16AC199A-E1EA-434A-B3BC-06F840B86571}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29552796-A7C3-4DCC-9A87-42AB34D3B0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712A1B-C0FF-4802-8587-C950E433DF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2664" yWindow="0" windowWidth="16956" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <t>Java并发编程实战</t>
   </si>
   <si>
-    <t>准备看第5章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第9章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第5章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +164,14 @@
   </si>
   <si>
     <t>java内部类需要总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-未读完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若以官方文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,25 +718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -748,10 +732,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -771,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -786,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="12">
+        <v>13.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="12">
         <v>28</v>
@@ -842,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12"/>
     </row>
@@ -851,10 +835,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -874,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="12"/>
     </row>
@@ -883,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="12"/>
     </row>
@@ -909,36 +893,30 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,35 +924,76 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{53D087BC-B672-49C9-91AB-6AE6CC4F59FA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{16AC199A-E1EA-434A-B3BC-06F840B86571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{16AC199A-E1EA-434A-B3BC-06F840B86571}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712A1B-C0FF-4802-8587-C950E433DF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF725E-9595-4672-B08B-F451020359B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2664" yWindow="0" windowWidth="16956" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,11 +163,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06-未读完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若以官方文档</t>
+    <t>UML和模式应用</t>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若依官方文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务职场透视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自己汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备看09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +271,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -362,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -397,7 +410,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,7 +701,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -718,49 +737,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12"/>
+    <row r="8" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -770,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12">
         <v>13.2</v>
@@ -784,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>22</v>
@@ -798,109 +823,109 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="12">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>25</v>
+      <c r="B14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -908,46 +933,65 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -974,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF725E-9595-4672-B08B-F451020359B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489811DC-0AF6-4053-AA85-F186F5063306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="0" windowWidth="16956" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>装备看09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义注解如何实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/luciochn/p/14529281.html
+https://blog.csdn.net/qq_41762594/article/details/109326971</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,6 +426,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -698,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,235 +752,229 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
+      <c r="D11" s="12">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D15" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="17" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="12"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -974,22 +983,46 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>40</v>
       </c>
     </row>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489811DC-0AF6-4053-AA85-F186F5063306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8FE3C-74AC-4600-B412-75F29B334039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第5章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +196,10 @@
   <si>
     <t>https://www.cnblogs.com/luciochn/p/14529281.html
 https://blog.csdn.net/qq_41762594/article/details/109326971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6章已看完，完成80%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,9 +426,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -716,7 +713,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -757,22 +754,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="3"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -784,10 +781,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -810,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -828,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="12">
         <v>13.2</v>
@@ -839,13 +836,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12">
         <v>28</v>
@@ -890,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="12"/>
     </row>
@@ -902,13 +899,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -917,22 +914,22 @@
         <v>4</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -941,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -953,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -971,10 +968,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -986,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="12"/>
     </row>
@@ -998,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -1017,13 +1014,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1051,12 +1048,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8FE3C-74AC-4600-B412-75F29B334039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60642FAD-FF4C-4B2B-8B1A-E1306B3C8C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,7 +195,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第6章已看完，完成80%</t>
+    <t>已看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备看13章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已看完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -754,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,7 +773,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -781,10 +785,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -807,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="12"/>
     </row>
@@ -825,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="12">
         <v>13.2</v>
@@ -839,10 +843,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -865,20 +869,6 @@
       <c r="C14" s="16"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12">
-        <v>28</v>
-      </c>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
@@ -887,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="12"/>
     </row>
@@ -899,13 +889,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -914,22 +904,22 @@
         <v>4</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -938,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -950,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -971,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -983,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="12"/>
     </row>
@@ -995,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -1014,13 +1004,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,6 +1051,20 @@
       <c r="C2" s="9"/>
       <c r="D2" s="11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60642FAD-FF4C-4B2B-8B1A-E1306B3C8C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F668D-C334-4DCA-A833-AC566C73F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
-    <sheet name="已完成" sheetId="3" r:id="rId2"/>
+    <sheet name="2023下半年" sheetId="4" r:id="rId2"/>
+    <sheet name="已完成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +180,6 @@
   </si>
   <si>
     <t>需要自己汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备看09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,11 +196,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准备看13章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备看13章-本书暂不适合读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备看28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NandToTetris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-掌握计算机体系结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左程云-算法初级班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左程云算法初级班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-数据结构与算法之美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学操作系统概述-蒋炎岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java并发编程图册-日拱一兵</t>
+  </si>
+  <si>
+    <t>oracle数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,17 +481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -714,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -736,7 +790,7 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
@@ -758,18 +812,18 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="21"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -781,14 +835,14 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,111 +869,90 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="12">
         <v>13.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -927,89 +960,113 @@
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="12"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="12"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1024,11 +1081,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16781B3A-D56E-43EE-9CF7-32088134EE1C}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,14 +1297,42 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F668D-C334-4DCA-A833-AC566C73F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C2A01-D14B-41A9-877A-DA9FAC4A018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
     <sheet name="2023下半年" sheetId="4" r:id="rId2"/>
-    <sheet name="已完成" sheetId="3" r:id="rId3"/>
+    <sheet name="2024" sheetId="5" r:id="rId3"/>
+    <sheet name="已完成" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Git在IDEA中的使用（详细图文全解）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看vue官方文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,15 +164,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若依官方文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>财务职场透视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +262,43 @@
   <si>
     <t>project使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-数据结构与算法之美</t>
+  </si>
+  <si>
+    <t>设计模式之美</t>
+  </si>
+  <si>
+    <t>王争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左程云正式算法课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若依-vue版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring实战第4版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot 深入浅出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring cloud 微服务与分布式实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨开振</t>
   </si>
 </sst>
 </file>
@@ -321,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -445,12 +477,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,6 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -768,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80337EA2-E6B8-45EE-9C60-E936E007A8AD}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -807,50 +853,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="17"/>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -858,167 +901,161 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>13.2</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D31" s="12"/>
     </row>
@@ -1027,47 +1064,23 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
+      <c r="C34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1098,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1120,29 +1133,29 @@
         <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1178,10 +1191,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1194,7 +1207,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1204,7 +1217,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -1225,17 +1238,28 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
+      <c r="B17" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,21 +1288,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E110C309-348E-4082-876C-18806070748D}">
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="114.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,8 +1364,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -1304,12 +1374,12 @@
         <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+      <c r="A4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1318,12 +1388,12 @@
         <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1332,8 +1402,31 @@
         <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87DFD39-3CCA-4FC3-AE3C-6096FD1207A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAD4CD-7C12-44AF-BA4C-38CB09898EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,14 @@
   </si>
   <si>
     <t>常用框架源码学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大话设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已看完地10章模板方法模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +681,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -760,10 +768,15 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -851,7 +864,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\日常总结\1-学习内容\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAD4CD-7C12-44AF-BA4C-38CB09898EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77409E-79A1-46F4-A3F2-E0299999C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023下半年" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>已看完地10章模板方法模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前主要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周志明-jvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构-红黑树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +293,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -365,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -397,6 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,20 +699,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16781B3A-D56E-43EE-9CF7-32088134EE1C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.2109375" customWidth="1"/>
-    <col min="6" max="6" width="26.78515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -705,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -719,7 +738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -729,7 +748,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -741,13 +760,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -761,13 +780,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -778,19 +797,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -804,13 +823,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -822,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -834,22 +853,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
@@ -861,19 +880,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E110C309-348E-4082-876C-18806070748D}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.2109375" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -881,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -889,12 +909,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -902,12 +922,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -928,13 +963,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="114.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="114.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -942,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -954,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77409E-79A1-46F4-A3F2-E0299999C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3294E6-C698-47C7-AA87-DBE0DA1F47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左程云正式算法课-初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring Boot 学习示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>数据结构-红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表 读写性能的 提高与优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,13 +788,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E110C309-348E-4082-876C-18806070748D}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -909,47 +909,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{84E77B1A-5B50-455A-B788-F10D10197695}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{531A83C8-0D7F-4D2A-9587-5F827470B6A6}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{84E77B1A-5B50-455A-B788-F10D10197695}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{531A83C8-0D7F-4D2A-9587-5F827470B6A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1-学习内容/常用工具学习及完成计划.xlsx
+++ b/1-学习内容/常用工具学习及完成计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3294E6-C698-47C7-AA87-DBE0DA1F47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4AAE0-9A54-46C2-93BB-E4940D86505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023下半年" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>数据库表 读写性能的 提高与优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E110C309-348E-4082-876C-18806070748D}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -957,10 +961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B9D808-C829-46DB-B1F5-53324EA0C09F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1046,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
